--- a/Project_Description-5324.xlsx
+++ b/Project_Description-5324.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prapti.patel@ibm.com/Downloads/SE-1-Project-master/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1220B8-DF44-B64B-B1E0-414A3F8D2424}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,30 +25,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="91">
-  <si>
-    <t xml:space="preserve">Function ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Function Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System User</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input(input by system user)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output (output to system user)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Student/ Staff/ Faculty/non-student, Vending Manager,Vending Operator</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+  <si>
+    <t>Function ID</t>
+  </si>
+  <si>
+    <t>Function Name</t>
+  </si>
+  <si>
+    <t>System User</t>
+  </si>
+  <si>
+    <t>Input(input by system user)</t>
+  </si>
+  <si>
+    <t>Output (output to system user)</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>Student/ Staff/ Faculty/non-student, Vending Manager,Vending Operator</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -61,13 +66,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">none</t>
+    <t>none</t>
   </si>
   <si>
     <t xml:space="preserve">System user fills the registration form to sign up. The profile is saved after a confirmation message. </t>
   </si>
   <si>
-    <t xml:space="preserve">Login</t>
+    <t>Login</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -75,16 +80,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Username, Password</t>
+    <t>Username, Password</t>
   </si>
   <si>
     <t xml:space="preserve">System user logs in to the system. Screen changes to home screen. </t>
   </si>
   <si>
-    <t xml:space="preserve">Logout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Student/Staff/Faculty/non-student, Vending Manager,Vending Operator</t>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>Student/Staff/Faculty/non-student, Vending Manager,Vending Operator</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -95,13 +100,13 @@
     <t xml:space="preserve">none </t>
   </si>
   <si>
-    <t xml:space="preserve">System user logs out from the system. SignIn screen will show.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">View Profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Student/ Staff/Faculty/non-student, Vending Manager,Vending Operator</t>
+    <t>System user logs out from the system. SignIn screen will show.</t>
+  </si>
+  <si>
+    <t>View Profile</t>
+  </si>
+  <si>
+    <t>Student/ Staff/Faculty/non-student, Vending Manager,Vending Operator</t>
   </si>
   <si>
     <r>
@@ -128,7 +133,7 @@
     <t xml:space="preserve">System user profile is displayed. </t>
   </si>
   <si>
-    <t xml:space="preserve">Update Profile</t>
+    <t>Update Profile</t>
   </si>
   <si>
     <t xml:space="preserve">Tab on edit icon to active options for editing </t>
@@ -144,16 +149,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The System User indicates that he wants to modify the System User profile while viewing it. This function is performed after performing the View Profile function. The output is updated after a confirmation message.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search Vehicle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Student/ Staff/ Faculty/non-student, Vending Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use of icons here to have user choose between cart or vending machine. (Tap action)</t>
+    <t>The System User indicates that he wants to modify the System User profile while viewing it. This function is performed after performing the View Profile function. The output is updated after a confirmation message.</t>
+  </si>
+  <si>
+    <t>Search Vehicle</t>
+  </si>
+  <si>
+    <t>Student/ Staff/ Faculty/non-student, Vending Manager</t>
+  </si>
+  <si>
+    <t>Use of icons here to have user choose between cart or vending machine. (Tap action)</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -168,13 +173,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">View Vehicle Inventory</t>
+    <t>View Vehicle Inventory</t>
   </si>
   <si>
     <t xml:space="preserve">Student/ Staff/ Faculty/non-student </t>
   </si>
   <si>
-    <t xml:space="preserve">Date(default to today), Vehicle name. Can be categorize into meals: example -&gt; Veggie, vegan, chicken, etc.</t>
+    <t>Date(default to today), Vehicle name. Can be categorize into meals: example -&gt; Veggie, vegan, chicken, etc.</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -187,16 +192,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">This function provides a list of remaining drinks, sandwiches, snacks and currently assigned duration ending time as well as currently assigned location of a specific vehicle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vending Operator, Vending Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date(default to today),Vehicle name. 
+    <t>This function provides a list of remaining drinks, sandwiches, snacks and currently assigned duration ending time as well as currently assigned location of a specific vehicle</t>
+  </si>
+  <si>
+    <t>7.a</t>
+  </si>
+  <si>
+    <t>Vending Operator, Vending Manager</t>
+  </si>
+  <si>
+    <t>Date(default to today),Vehicle name. 
 We can also provide more division based on type of meal to ease the search process for the manager and the operator</t>
   </si>
   <si>
@@ -213,16 +218,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">This function provides a list of remaining drinks, sandwiches, snacks and currently assigned duration ending time as well as currently assigned location, total revenue, next assigned location and name of operator for manager only.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">View Available Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vending Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date (default to next day). Carts and vans</t>
+    <t>This function provides a list of remaining drinks, sandwiches, snacks and currently assigned duration ending time as well as currently assigned location, total revenue, next assigned location and name of operator for manager only.</t>
+  </si>
+  <si>
+    <t>View Available Vehicles</t>
+  </si>
+  <si>
+    <t>Vending Manager</t>
+  </si>
+  <si>
+    <t>Date (default to next day). Carts and vans</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -234,7 +239,7 @@
     <t xml:space="preserve">This function provides a list of vehicles available for next day. </t>
   </si>
   <si>
-    <t xml:space="preserve">View Vehicle Operator</t>
+    <t>View Vehicle Operator</t>
   </si>
   <si>
     <t xml:space="preserve">Vehicle Operator's name or ID. </t>
@@ -249,10 +254,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">This function provides details of vehicle operator including his name, vehicle type, location Id, name and end time of vehicle assigned to the operator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assign Location</t>
+    <t>This function provides details of vehicle operator including his name, vehicle type, location Id, name and end time of vehicle assigned to the operator</t>
+  </si>
+  <si>
+    <t>Assign Location</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -262,45 +267,26 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The System User assigns a location to the vehicle for the next day with the confirmation message.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assign Operator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Vehicle Name                                       
-Operator Name                                            
-Time Duration (default to entire day)
-</t>
+    <t>The System User assigns a location to the vehicle for the next day with the confirmation message.</t>
+  </si>
+  <si>
+    <t>Assign Operator</t>
   </si>
   <si>
     <t xml:space="preserve">
 None</t>
   </si>
   <si>
-    <t xml:space="preserve">The System user assigns operator to the vending vehicle for the entire next day. Assignment is successfully executed with a confirmation message</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purchase Item</t>
+    <t>The System user assigns operator to the vending vehicle for the entire next day. Assignment is successfully executed with a confirmation message</t>
   </si>
   <si>
     <t xml:space="preserve">Student/ Staff/ Faculty/non-student, </t>
   </si>
   <si>
-    <t xml:space="preserve">Item Type                                                
-Quantity                                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-The System user purchase an item from the vehicle and a confirmation message is displayed. If the user doesn’t have a card information, then he is prompted to do so.(Refer to add payment fiunction  for more details).
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">View Schedule-Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vending Operator</t>
+    <t>View Schedule-Location</t>
+  </si>
+  <si>
+    <t>Vending Operator</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -312,10 +298,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">This function provides the schedule and location of vending operator for current day.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modify Operator</t>
+    <t>This function provides the schedule and location of vending operator for current day.</t>
+  </si>
+  <si>
+    <t>Modify Operator</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -327,16 +313,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">No input is required because the System User selects this function after viewing a specific vehicle. Data shown as output is updated after system user confirms the save of modified data.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terminate Operator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operators name or ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Success Message</t>
+    <t>No input is required because the System User selects this function after viewing a specific vehicle. Data shown as output is updated after system user confirms the save of modified data.</t>
+  </si>
+  <si>
+    <t>Terminate Operator</t>
+  </si>
+  <si>
+    <t>Operators name or ID</t>
+  </si>
+  <si>
+    <t>Success Message</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -344,13 +330,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Modify Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type the location ID which needs to be modified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location ID, 
+    <t>Modify Location</t>
+  </si>
+  <si>
+    <t>Type the location ID which needs to be modified</t>
+  </si>
+  <si>
+    <t>Location ID, 
 Location current schedule
 Current operator active on the location. 
 Option to remove or edit</t>
@@ -362,45 +348,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Add to Cart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item Name                                                     
-Quantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item added Success message</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-User can add items to the cart. Followed by an option of whether he wants continue shopping or proceed to payment.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modify Cart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update quantity
-Remove item from cart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-User can modify their cart. They can add to their quantity/ remove an item from a cart. The modified cart summary will be presented to the user.
-</t>
+    <t>Add to Cart</t>
+  </si>
+  <si>
+    <t>Modify Cart</t>
   </si>
   <si>
     <t xml:space="preserve">Checkout </t>
   </si>
   <si>
-    <t xml:space="preserve">Choose Payment Option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-User can review and edit the cart details, and then place the order. E-mail the order reciept
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add Payment Information</t>
+    <t>Add Payment Information</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -411,17 +368,67 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">User can successfully add the card to the specific User profile.</t>
+    <t>User can successfully add the card to the specific User profile.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Vehicle Name                                       
+Operator Name                                            
+Time Duration (default to entire next day)
+</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item Name                                       
+Item Type                                            
+Quantity                                           Cost                               </t>
+  </si>
+  <si>
+    <t>Search Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item Name                                       
+Item Type                                            
+        </t>
+  </si>
+  <si>
+    <t>Output produced is a list of items that are sorted by item type , item cost (min to max) that match Sort Filter1 and Sort Filter2. Output is a selectable list with options to view.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+This function will perform after system user selects searched item. System User  add items to the cart and successful message is displayed. Followed by an option of whether he wants to modify a cart for continue shopping or proceed to payment.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item Name                                       
+Cost                                            
+Quantity ( Default to 1 )       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+This function is performed after item is added to the cart. System user can modify their cart. They can modify quantity/ remove an item from a cart. The modified cart summary will be presented to the user.
+</t>
+  </si>
+  <si>
+    <t>Payment summary                      Item name                             Quantity                                      Total cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+User can review the order. If the payment methos is not added during the registration, user is promted to add payment information. The user can place the order and sucessful message will be displayed. 
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -430,37 +437,20 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF262626"/>
       <name val="Montserrat Medium"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF262626"/>
       <name val="Montserrat Semi Bold"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF262626"/>
       <name val="Arial"/>
@@ -470,14 +460,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF262626"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF2F5597"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -534,140 +516,100 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -726,34 +668,342 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF2F5597"/>
       <rgbColor rgb="FF262626"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="35.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="39.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="39.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="34.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="68.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="7" width="10.83"/>
+    <col min="1" max="1" width="15.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="39.83203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="34.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="68.1640625" style="6" customWidth="1"/>
+    <col min="7" max="1025" width="10.83203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="17">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -773,8 +1023,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="166.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="n">
+    <row r="2" spans="1:6" ht="221">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -793,8 +1043,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="50.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="n">
+    <row r="3" spans="1:6" ht="68">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -813,8 +1063,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="50.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="n">
+    <row r="4" spans="1:6" ht="68">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -833,8 +1083,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="n">
+    <row r="5" spans="1:6" ht="204">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -853,8 +1103,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="103.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="n">
+    <row r="6" spans="1:6" ht="136">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -873,8 +1123,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="63.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="n">
+    <row r="7" spans="1:6" ht="85">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -893,8 +1143,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="103.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="n">
+    <row r="8" spans="1:6" ht="136">
+      <c r="A8" s="14">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -913,7 +1163,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" ht="187">
       <c r="A9" s="14" t="s">
         <v>38</v>
       </c>
@@ -933,8 +1183,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="50.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="n">
+    <row r="10" spans="1:6" ht="68">
+      <c r="A10" s="14">
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -953,8 +1203,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="88.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="n">
+    <row r="11" spans="1:6" ht="119">
+      <c r="A11" s="14">
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -973,8 +1223,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="63.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="n">
+    <row r="12" spans="1:6" ht="85">
+      <c r="A12" s="14">
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -993,8 +1243,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="63.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="n">
+    <row r="13" spans="1:6" ht="102">
+      <c r="A13" s="14">
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -1004,204 +1254,197 @@
         <v>44</v>
       </c>
       <c r="D13" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="F13" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="19" t="s">
+    </row>
+    <row r="14" spans="1:6" ht="51">
+      <c r="A14" s="14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="63.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" s="9" t="s">
+      <c r="D14" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="102">
+      <c r="A15" s="14">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="85">
+      <c r="A16" s="14">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="85">
+      <c r="A17" s="14">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="102">
+      <c r="A18" s="14">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="119">
+      <c r="A19" s="14">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C19" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="F19" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="119">
+      <c r="A20" s="14">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="15" t="s">
+      <c r="E20" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="17" t="s">
+      <c r="F20" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="19" t="s">
+    </row>
+    <row r="21" spans="1:6" ht="68">
+      <c r="A21" s="14">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="88.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" s="9" t="s">
+      <c r="C21" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="E21" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="136">
+      <c r="A22" s="14">
+        <v>20</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="52.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="16" t="s">
+      <c r="D22" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E22" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F22" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="52.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="52.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="38.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="76.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>